--- a/biology/Zoologie/Cephalotes_jheringi/Cephalotes_jheringi.xlsx
+++ b/biology/Zoologie/Cephalotes_jheringi/Cephalotes_jheringi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes jheringi est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes jheringi est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C. jheringi est trouvée dans une géographie spécifique d'Amérique du sud, de la région brésilienne du Mato Grosso do Sul au Nord, jusqu'à la région Argentine de Buenos Aires au Sud de son aire naturelle d'implantation[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C. jheringi est trouvée dans une géographie spécifique d'Amérique du sud, de la région brésilienne du Mato Grosso do Sul au Nord, jusqu'à la région Argentine de Buenos Aires au Sud de son aire naturelle d'implantation.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalotes jheringi fut décrite et classifiée pour la première fois par l'entomologiste italien Carlo Emery en 1894.
-Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Diversity and Adaptation in the Ant Genus Cephalotes Past and Present (Hymenoptera, Formicidae)
 </t>
